--- a/presentations/team_members.xlsx
+++ b/presentations/team_members.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/schilder/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/schilder/Desktop/Challenge-3-London-Team-C/presentations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BA4F23-1D2C-9646-8775-8B63D9BF1F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57DEE5C-4CAC-0145-9B45-C252B5654F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1340" yWindow="600" windowWidth="28040" windowHeight="17440" xr2:uid="{1B187075-88BE-F444-8E0E-4A32AFFE065D}"/>
   </bookViews>
@@ -559,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03663644-2CB0-8946-AC3F-3E71EE9F4DA2}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/presentations/team_members.xlsx
+++ b/presentations/team_members.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/schilder/Desktop/Challenge-3-London-Team-C/presentations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57DEE5C-4CAC-0145-9B45-C252B5654F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6434E0-5B96-D14C-B5A3-FEF453D60CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1340" yWindow="600" windowWidth="28040" windowHeight="17440" xr2:uid="{1B187075-88BE-F444-8E0E-4A32AFFE065D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Name</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>King’s College London</t>
-  </si>
-  <si>
-    <t>Crick Institute</t>
   </si>
   <si>
     <t>Roles</t>
@@ -560,7 +557,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C1:C1048576"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -582,10 +579,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="170" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -593,27 +590,27 @@
         <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="102" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -621,27 +618,25 @@
         <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -649,13 +644,13 @@
         <v>9</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -663,13 +658,13 @@
         <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -677,13 +672,13 @@
         <v>13</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -691,10 +686,10 @@
         <v>15</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
